--- a/sport/output/48.xlsx
+++ b/sport/output/48.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="81">
   <si>
     <t>month</t>
   </si>
@@ -34,15 +34,15 @@
     <t>location</t>
   </si>
   <si>
-    <t>March</t>
-  </si>
-  <si>
     <t>April</t>
   </si>
   <si>
     <t>May</t>
   </si>
   <si>
+    <t>June</t>
+  </si>
+  <si>
     <t>July</t>
   </si>
   <si>
@@ -55,235 +55,208 @@
     <t>October</t>
   </si>
   <si>
-    <t>November</t>
-  </si>
-  <si>
-    <t>December</t>
+    <t>Asian Championships</t>
+  </si>
+  <si>
+    <t>4th South American Youth Games</t>
   </si>
   <si>
     <t>Pan-American Junior Championships</t>
   </si>
   <si>
-    <t>Oceania Junior &amp; Youth Championships</t>
-  </si>
-  <si>
     <t>European Championships</t>
   </si>
   <si>
-    <t>African Championships</t>
-  </si>
-  <si>
-    <t>IWF World Youth &amp; Junior Championships</t>
-  </si>
-  <si>
-    <t>Asian Championships</t>
-  </si>
-  <si>
-    <t>IWF Electoral Congress</t>
-  </si>
-  <si>
-    <t>Pacific Mini Games + Oceania Senior Championships</t>
+    <t>Oceania Senior, Junior &amp; Youth Championships + Commonwealth Junior &amp; Youth Championships + IWF World Cup</t>
+  </si>
+  <si>
+    <t>IWF World Junior Championships</t>
+  </si>
+  <si>
+    <t>Pan-American Championships</t>
+  </si>
+  <si>
+    <t>IWF World Youth Championships</t>
+  </si>
+  <si>
+    <t>25th Central American and Caribbean Games</t>
+  </si>
+  <si>
+    <t>XXIII Commonwealth Games</t>
+  </si>
+  <si>
+    <t>European Youth Championships</t>
+  </si>
+  <si>
+    <t>European U15 Championships</t>
   </si>
   <si>
     <t>Asian Youth &amp; Junior Championships</t>
   </si>
   <si>
-    <t>Pan-American Championships</t>
-  </si>
-  <si>
-    <t>Balkan Senior &amp; Junior  Championships</t>
-  </si>
-  <si>
-    <t>European Youth Championships</t>
-  </si>
-  <si>
-    <t>II Junior Pan American Games</t>
-  </si>
-  <si>
-    <t>African Youth &amp; Junior Championships</t>
-  </si>
-  <si>
-    <t>Commonwealth Senior, Junior &amp; Youth Championships</t>
+    <t>XX Mediterranean Games</t>
+  </si>
+  <si>
+    <t>FISU World University Championship</t>
+  </si>
+  <si>
+    <t>XIII South American Games</t>
+  </si>
+  <si>
+    <t>20th Asian Games</t>
   </si>
   <si>
     <t>European Junior Championships</t>
   </si>
   <si>
+    <t>European U23 Championships</t>
+  </si>
+  <si>
+    <t>IWF Official Meetings</t>
+  </si>
+  <si>
     <t>IWF World Championships</t>
   </si>
   <si>
-    <t>6th Islamic Solidarity Games</t>
-  </si>
-  <si>
-    <t>Pan-American Youth Championships</t>
-  </si>
-  <si>
-    <t>XX Bolivarian Games</t>
-  </si>
-  <si>
-    <t>6th International Men Fajr Cup</t>
-  </si>
-  <si>
-    <t>33rd SEA Games</t>
-  </si>
-  <si>
-    <t>From 09 March 2025to 15 March 2025</t>
-  </si>
-  <si>
-    <t>From 11 April 2025to 13 April 2025</t>
-  </si>
-  <si>
-    <t>From 13 April 2025to 21 April 2025</t>
-  </si>
-  <si>
-    <t>From 20 April 2025to 28 April 2025</t>
-  </si>
-  <si>
-    <t>From 30 April 2025to 05 May 2025</t>
-  </si>
-  <si>
-    <t>From 09 May 2025to 15 May 2025</t>
-  </si>
-  <si>
-    <t>From 24 May 2025to 25 May 2025</t>
-  </si>
-  <si>
-    <t>From 01 July 2025to 05 July 2025</t>
-  </si>
-  <si>
-    <t>From 01 July 2025to 07 July 2025</t>
-  </si>
-  <si>
-    <t>From 12 July 2025to 18 July 2025</t>
-  </si>
-  <si>
-    <t>From 20 July 2025to 25 July 2025</t>
-  </si>
-  <si>
-    <t>From 23 July 2025to 30 July 2025</t>
-  </si>
-  <si>
-    <t>From 09 August 2025to 23 August 2025</t>
-  </si>
-  <si>
-    <t>From 15 August 2025to 22 August 2025</t>
-  </si>
-  <si>
-    <t>From 24 August 2025to 30 August 2025</t>
-  </si>
-  <si>
-    <t>From 04 September 2025to 12 September 2025</t>
-  </si>
-  <si>
-    <t>From 02 October 2025to 11 October 2025</t>
-  </si>
-  <si>
-    <t>From 07 November 2025to 21 November 2025</t>
-  </si>
-  <si>
-    <t>From 10 November 2025to 15 November 2025</t>
-  </si>
-  <si>
-    <t>From 21 November 2025to 07 December 2025</t>
-  </si>
-  <si>
-    <t>From 26 November 2025to 30 November 2025</t>
-  </si>
-  <si>
-    <t>From 13 December 2025to 17 December 2025</t>
-  </si>
-  <si>
-    <t>https://iwf.sport/downloads/?category=327</t>
-  </si>
-  <si>
-    <t>https://iwf.sport/downloads/?category=330</t>
-  </si>
-  <si>
-    <t>https://ewf.sport/2024/12/13/2025-european-senior-championships/</t>
-  </si>
-  <si>
-    <t>https://iwf.sport/downloads/?category=329</t>
-  </si>
-  <si>
-    <t>https://www.iwf.net/downloads/?category=328</t>
-  </si>
-  <si>
-    <t>https://iwf.sport/downloads/?category=331</t>
-  </si>
-  <si>
-    <t>https://www.iwf.net/downloads/?category=333</t>
-  </si>
-  <si>
-    <t>https://asu2025.org.py/</t>
-  </si>
-  <si>
-    <t>https://www.forde2025.no/en/</t>
-  </si>
-  <si>
-    <t>http://seagames2025.org/</t>
+    <t>Youth Olympic Games / Weightlifting will be part of the engagement programme</t>
+  </si>
+  <si>
+    <t>From 01 April 2026to 10 April 2026</t>
+  </si>
+  <si>
+    <t>From 12 April 2026to 16 April 2026</t>
+  </si>
+  <si>
+    <t>From 18 April 2026to 24 April 2026</t>
+  </si>
+  <si>
+    <t>From 19 April 2026to 26 April 2026</t>
+  </si>
+  <si>
+    <t>From 27 April 2026to 02 May 2026</t>
+  </si>
+  <si>
+    <t>From 02 May 2026to 08 May 2026</t>
+  </si>
+  <si>
+    <t>From 12 May 2026to 18 May 2026</t>
+  </si>
+  <si>
+    <t>From 22 June 2026to 28 June 2026</t>
+  </si>
+  <si>
+    <t>From 25 July 2026to 08 August 2026</t>
+  </si>
+  <si>
+    <t>From 26 July 2026to 30 July 2026</t>
+  </si>
+  <si>
+    <t>From 02 August 2026to 09 August 2026</t>
+  </si>
+  <si>
+    <t>From 07 August 2026to 14 August 2026</t>
+  </si>
+  <si>
+    <t>From 31 August 2026to 02 September 2026</t>
+  </si>
+  <si>
+    <t>From 08 September 2026to 12 September 2026</t>
+  </si>
+  <si>
+    <t>From 13 September 2026to 17 September 2026</t>
+  </si>
+  <si>
+    <t>From 19 September 2026to 04 October 2026</t>
+  </si>
+  <si>
+    <t>From 23 September 2026to 30 September 2026</t>
+  </si>
+  <si>
+    <t>From 24 October 2026to 26 October 2026</t>
+  </si>
+  <si>
+    <t>From 27 October 2026to 08 November 2026</t>
+  </si>
+  <si>
+    <t>From 31 October 2026to 13 November 2026</t>
+  </si>
+  <si>
+    <t>https://jcc2026.org/</t>
+  </si>
+  <si>
+    <t>https://iwf.sport/downloads/?category=336</t>
+  </si>
+  <si>
+    <t>https://www.ta2026.com/en/</t>
+  </si>
+  <si>
+    <t>https://aichi-nagoya2026.org/en/</t>
+  </si>
+  <si>
+    <t>https://olympics.com/fr/dakar-2026/</t>
   </si>
   <si>
     <t>IWF Event</t>
   </si>
   <si>
-    <t>La Habana, CUB</t>
-  </si>
-  <si>
-    <t>Melbourne, AUS</t>
-  </si>
-  <si>
-    <t>Chisinau, MDA</t>
-  </si>
-  <si>
-    <t>Moka, MRI</t>
-  </si>
-  <si>
-    <t>Lima, PER</t>
-  </si>
-  <si>
-    <t>Jiangshan, CHN</t>
-  </si>
-  <si>
-    <t>Riyadh, KSA</t>
-  </si>
-  <si>
-    <t>TBD, PLW</t>
-  </si>
-  <si>
-    <t>Astana, KAZ</t>
-  </si>
-  <si>
-    <t>Cali, COL</t>
-  </si>
-  <si>
-    <t>Durres, ALB</t>
-  </si>
-  <si>
-    <t>Madrid, ESP</t>
-  </si>
-  <si>
-    <t>Asunción, PAR</t>
-  </si>
-  <si>
-    <t>Accra, GHA</t>
+    <t>Unknown</t>
   </si>
   <si>
     <t>Ahmedabad, IND</t>
   </si>
   <si>
-    <t>Tirana, ALB</t>
-  </si>
-  <si>
-    <t>Forde, NOR</t>
-  </si>
-  <si>
-    <t>San Luis Potosí, MEX</t>
-  </si>
-  <si>
-    <t>Tehran, IRI</t>
-  </si>
-  <si>
-    <t>Chonburi, THA</t>
+    <t>Panama city, PAN</t>
+  </si>
+  <si>
+    <t>Guadalajara, MEX</t>
+  </si>
+  <si>
+    <t>Batumi, GEO</t>
+  </si>
+  <si>
+    <t>Apia, SAM</t>
+  </si>
+  <si>
+    <t>Ismailia, EGY</t>
+  </si>
+  <si>
+    <t>Isla Margarita, VEN</t>
+  </si>
+  <si>
+    <t>Bogota, COL</t>
+  </si>
+  <si>
+    <t>Santo Domingo, DOM</t>
+  </si>
+  <si>
+    <t>Glasgow, SCO</t>
+  </si>
+  <si>
+    <t>Elbasan, ALB</t>
+  </si>
+  <si>
+    <t>Tashkent, UZB</t>
+  </si>
+  <si>
+    <t>Taranto, ITA</t>
+  </si>
+  <si>
+    <t>Doha, QAT</t>
+  </si>
+  <si>
+    <t>Santa Fe, ARG</t>
+  </si>
+  <si>
+    <t>Aichi-Nagoya, JPN</t>
+  </si>
+  <si>
+    <t>Lublin, POL</t>
+  </si>
+  <si>
+    <t>Ningbo, CHN</t>
+  </si>
+  <si>
+    <t>Dakar, SEN</t>
   </si>
 </sst>
 </file>
@@ -685,153 +658,135 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F7" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" t="s">
         <v>69</v>
-      </c>
-      <c r="F9" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -839,16 +794,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F10" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -856,53 +814,53 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F13" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -910,19 +868,16 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F14" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -930,33 +885,36 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F15" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F16" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -964,138 +922,133 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E17" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F17" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F18" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E19" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F19" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E20" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F20" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E21" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F21" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E22" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F22" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E23" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F23" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="D6" r:id="rId5"/>
-    <hyperlink ref="D7" r:id="rId6"/>
-    <hyperlink ref="D11" r:id="rId7"/>
-    <hyperlink ref="D14" r:id="rId8"/>
-    <hyperlink ref="D18" r:id="rId9"/>
-    <hyperlink ref="D23" r:id="rId10"/>
+    <hyperlink ref="D10" r:id="rId1"/>
+    <hyperlink ref="D11" r:id="rId2"/>
+    <hyperlink ref="D15" r:id="rId3"/>
+    <hyperlink ref="D18" r:id="rId4"/>
+    <hyperlink ref="D23" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
